--- a/docs/7-8_システム要件定義/7_システム要件定義プロセスガイド/システム要件定義プロセス一覧.xlsx
+++ b/docs/7-8_システム要件定義/7_システム要件定義プロセスガイド/システム要件定義プロセス一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="28830" windowHeight="6150" tabRatio="447"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="20730" windowHeight="6150" tabRatio="447"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -3884,16 +3884,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>の下に提供されています。</t>
   </si>
   <si>
@@ -4395,6 +4385,9 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -4815,16 +4808,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4835,11 +4831,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5311,7 +5304,9 @@
   </sheetPr>
   <dimension ref="A1:AH512"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6129,7 +6124,7 @@
       <c r="P23" s="33"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
@@ -6203,7 +6198,7 @@
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
       <c r="R25" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
@@ -6456,9 +6451,7 @@
       <c r="O32" s="33"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="33"/>
-      <c r="R32" s="44" t="s">
-        <v>422</v>
-      </c>
+      <c r="R32" s="44"/>
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
@@ -6695,12 +6688,12 @@
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33"/>
       <c r="B39" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -6715,7 +6708,7 @@
       <c r="P39" s="48"/>
       <c r="Q39" s="49"/>
       <c r="R39" s="49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S39" s="48"/>
       <c r="T39" s="33"/>
@@ -6734,7 +6727,11 @@
       <c r="AG39" s="33"/>
       <c r="AH39" s="33"/>
     </row>
-    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7213,7 +7210,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -7288,10 +7285,10 @@
       <c r="B4" s="55">
         <v>1</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="63" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="56" t="s">
@@ -7325,12 +7322,12 @@
         <f t="shared" ref="B5:B82" si="0">B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="64" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="24" t="s">
@@ -7340,7 +7337,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>84</v>
@@ -7358,10 +7355,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="24" t="s">
         <v>75</v>
       </c>
@@ -7369,7 +7366,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J6" s="26" t="s">
         <v>273</v>
@@ -7387,10 +7384,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="24" t="s">
         <v>76</v>
       </c>
@@ -7401,7 +7398,7 @@
         <v>369</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>266</v>
@@ -7416,10 +7413,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="24" t="s">
         <v>77</v>
       </c>
@@ -7427,7 +7424,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>370</v>
@@ -7445,10 +7442,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="24" t="s">
         <v>78</v>
       </c>
@@ -7474,12 +7471,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="64" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="58" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="24" t="s">
@@ -7507,10 +7504,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="24" t="s">
         <v>79</v>
       </c>
@@ -7536,10 +7533,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="24" t="s">
         <v>60</v>
       </c>
@@ -7547,7 +7544,7 @@
         <v>238</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>413</v>
@@ -7565,12 +7562,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="64" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="57" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="24" t="s">
@@ -7598,10 +7595,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="24" t="s">
         <v>62</v>
       </c>
@@ -7627,10 +7624,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="24" t="s">
         <v>242</v>
       </c>
@@ -7656,10 +7653,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="24" t="s">
         <v>313</v>
       </c>
@@ -7685,16 +7682,16 @@
         <f>B16+1</f>
         <v>14</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="59" t="s">
         <v>315</v>
       </c>
       <c r="G17" s="24" t="s">
@@ -7704,7 +7701,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>277</v>
@@ -7722,10 +7719,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="24" t="s">
         <v>63</v>
       </c>
@@ -7733,7 +7730,7 @@
         <v>21</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>278</v>
@@ -7751,10 +7748,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="24" t="s">
         <v>234</v>
       </c>
@@ -7762,7 +7759,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>279</v>
@@ -7780,10 +7777,10 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="24" t="s">
         <v>64</v>
       </c>
@@ -7809,10 +7806,10 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="24" t="s">
         <v>65</v>
       </c>
@@ -7820,7 +7817,7 @@
         <v>24</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>316</v>
@@ -7841,10 +7838,10 @@
         <f>B20+1</f>
         <v>18</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="59" t="s">
         <v>92</v>
       </c>
       <c r="E22" s="52" t="s">
@@ -7860,7 +7857,7 @@
         <v>321</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J22" s="26" t="s">
         <v>365</v>
@@ -7884,12 +7881,12 @@
         <f>B21+1</f>
         <v>19</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="61" t="s">
         <v>93</v>
       </c>
       <c r="G23" s="29" t="s">
@@ -7899,7 +7896,7 @@
         <v>159</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J23" s="26" t="s">
         <v>282</v>
@@ -7921,10 +7918,10 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="60"/>
-      <c r="F24" s="58"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="29" t="s">
         <v>329</v>
       </c>
@@ -7932,7 +7929,7 @@
         <v>160</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>283</v>
@@ -7954,10 +7951,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="60"/>
-      <c r="F25" s="58"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="29" t="s">
         <v>330</v>
       </c>
@@ -7965,7 +7962,7 @@
         <v>162</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J25" s="26" t="s">
         <v>284</v>
@@ -7987,10 +7984,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="60"/>
-      <c r="F26" s="58"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="29" t="s">
         <v>331</v>
       </c>
@@ -7998,10 +7995,10 @@
         <v>94</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K26" s="26" t="s">
         <v>388</v>
@@ -8020,10 +8017,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="58"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="29" t="s">
         <v>332</v>
       </c>
@@ -8055,12 +8052,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57" t="s">
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="61" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="29" t="s">
@@ -8070,7 +8067,7 @@
         <v>169</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J28" s="26" t="s">
         <v>286</v>
@@ -8092,10 +8089,10 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>334</v>
       </c>
@@ -8127,10 +8124,10 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="29" t="s">
         <v>335</v>
       </c>
@@ -8160,10 +8157,10 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="29" t="s">
         <v>336</v>
       </c>
@@ -8193,12 +8190,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="61" t="s">
         <v>100</v>
       </c>
       <c r="G32" s="31" t="s">
@@ -8208,7 +8205,7 @@
         <v>101</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>290</v>
@@ -8230,10 +8227,10 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="60"/>
-      <c r="F33" s="58"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="31" t="s">
         <v>338</v>
       </c>
@@ -8265,10 +8262,10 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="60"/>
-      <c r="F34" s="58"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="31" t="s">
         <v>339</v>
       </c>
@@ -8300,10 +8297,10 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="60"/>
-      <c r="F35" s="58"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="31" t="s">
         <v>340</v>
       </c>
@@ -8335,10 +8332,10 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="60"/>
-      <c r="F36" s="58"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="31" t="s">
         <v>341</v>
       </c>
@@ -8370,16 +8367,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="59" t="s">
         <v>408</v>
       </c>
       <c r="E37" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F37" s="58" t="s">
+      <c r="F37" s="61" t="s">
         <v>392</v>
       </c>
       <c r="G37" s="32" t="s">
@@ -8403,7 +8400,7 @@
       <c r="M37" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="N37" s="59"/>
+      <c r="N37" s="65"/>
     </row>
     <row r="38" spans="1:14" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
@@ -8413,10 +8410,10 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="60"/>
-      <c r="F38" s="58"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="32" t="s">
         <v>342</v>
       </c>
@@ -8430,7 +8427,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L38" s="26" t="s">
         <v>13</v>
@@ -8438,7 +8435,7 @@
       <c r="M38" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="N38" s="59"/>
+      <c r="N38" s="65"/>
     </row>
     <row r="39" spans="1:14" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
@@ -8448,10 +8445,10 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="60"/>
-      <c r="F39" s="58"/>
+      <c r="F39" s="61"/>
       <c r="G39" s="32" t="s">
         <v>343</v>
       </c>
@@ -8465,7 +8462,7 @@
         <v>250</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L39" s="26" t="s">
         <v>13</v>
@@ -8473,7 +8470,7 @@
       <c r="M39" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="N39" s="59"/>
+      <c r="N39" s="65"/>
     </row>
     <row r="40" spans="1:14" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
@@ -8483,10 +8480,10 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="60"/>
-      <c r="F40" s="58"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="32" t="s">
         <v>344</v>
       </c>
@@ -8494,13 +8491,13 @@
         <v>109</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J40" s="26" t="s">
         <v>250</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L40" s="26" t="s">
         <v>13</v>
@@ -8508,7 +8505,7 @@
       <c r="M40" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="N40" s="59"/>
+      <c r="N40" s="65"/>
     </row>
     <row r="41" spans="1:14" s="12" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -8516,12 +8513,12 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="F41" s="58" t="s">
+      <c r="F41" s="61" t="s">
         <v>187</v>
       </c>
       <c r="G41" s="32" t="s">
@@ -8555,10 +8552,10 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="60"/>
-      <c r="F42" s="58"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="32" t="s">
         <v>345</v>
       </c>
@@ -8580,7 +8577,7 @@
       <c r="M42" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="N42" s="59"/>
+      <c r="N42" s="65"/>
     </row>
     <row r="43" spans="1:14" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
@@ -8590,10 +8587,10 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="60"/>
-      <c r="F43" s="58"/>
+      <c r="F43" s="61"/>
       <c r="G43" s="32" t="s">
         <v>346</v>
       </c>
@@ -8615,7 +8612,7 @@
       <c r="M43" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="59"/>
+      <c r="N43" s="65"/>
     </row>
     <row r="44" spans="1:14" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
@@ -8625,10 +8622,10 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="60"/>
-      <c r="F44" s="58"/>
+      <c r="F44" s="61"/>
       <c r="G44" s="32" t="s">
         <v>347</v>
       </c>
@@ -8650,7 +8647,7 @@
       <c r="M44" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N44" s="59"/>
+      <c r="N44" s="65"/>
     </row>
     <row r="45" spans="1:14" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
@@ -8660,10 +8657,10 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="60"/>
-      <c r="F45" s="58"/>
+      <c r="F45" s="61"/>
       <c r="G45" s="32" t="s">
         <v>348</v>
       </c>
@@ -8685,7 +8682,7 @@
       <c r="M45" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="N45" s="59"/>
+      <c r="N45" s="65"/>
     </row>
     <row r="46" spans="1:14" s="12" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
@@ -8693,10 +8690,10 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="60"/>
-      <c r="F46" s="58"/>
+      <c r="F46" s="61"/>
       <c r="G46" s="32" t="s">
         <v>349</v>
       </c>
@@ -8728,12 +8725,12 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="61" t="s">
         <v>123</v>
       </c>
       <c r="G47" s="32" t="s">
@@ -8749,7 +8746,7 @@
         <v>299</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L47" s="26" t="s">
         <v>13</v>
@@ -8767,10 +8764,10 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="60"/>
-      <c r="F48" s="58"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="32" t="s">
         <v>127</v>
       </c>
@@ -8784,7 +8781,7 @@
         <v>300</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L48" s="26" t="s">
         <v>13</v>
@@ -8802,10 +8799,10 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="60"/>
-      <c r="F49" s="58"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="32" t="s">
         <v>130</v>
       </c>
@@ -8819,7 +8816,7 @@
         <v>301</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L49" s="26" t="s">
         <v>13</v>
@@ -8837,10 +8834,10 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="60"/>
-      <c r="F50" s="58"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="32" t="s">
         <v>350</v>
       </c>
@@ -8851,10 +8848,10 @@
         <v>381</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L50" s="26" t="s">
         <v>13</v>
@@ -8872,10 +8869,10 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
       <c r="E51" s="60"/>
-      <c r="F51" s="58"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="32" t="s">
         <v>351</v>
       </c>
@@ -8883,13 +8880,13 @@
         <v>195</v>
       </c>
       <c r="I51" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="J51" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="J51" s="26" t="s">
-        <v>464</v>
-      </c>
       <c r="K51" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L51" s="26" t="s">
         <v>13</v>
@@ -8905,12 +8902,12 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="F52" s="58" t="s">
+      <c r="F52" s="61" t="s">
         <v>197</v>
       </c>
       <c r="G52" s="29" t="s">
@@ -8942,10 +8939,10 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="60"/>
-      <c r="F53" s="58"/>
+      <c r="F53" s="61"/>
       <c r="G53" s="29" t="s">
         <v>135</v>
       </c>
@@ -8975,10 +8972,10 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="60"/>
-      <c r="F54" s="58"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="29" t="s">
         <v>137</v>
       </c>
@@ -9008,10 +9005,10 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="60"/>
-      <c r="F55" s="58"/>
+      <c r="F55" s="61"/>
       <c r="G55" s="29" t="s">
         <v>138</v>
       </c>
@@ -9019,7 +9016,7 @@
         <v>133</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J55" s="26" t="s">
         <v>303</v>
@@ -9043,16 +9040,16 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="59" t="s">
         <v>408</v>
       </c>
       <c r="E56" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="F56" s="58" t="s">
+      <c r="F56" s="61" t="s">
         <v>134</v>
       </c>
       <c r="G56" s="32" t="s">
@@ -9062,7 +9059,7 @@
         <v>200</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J56" s="26" t="s">
         <v>304</v>
@@ -9086,10 +9083,10 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="60"/>
-      <c r="F57" s="58"/>
+      <c r="F57" s="61"/>
       <c r="G57" s="32" t="s">
         <v>352</v>
       </c>
@@ -9097,7 +9094,7 @@
         <v>136</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J57" s="26" t="s">
         <v>251</v>
@@ -9121,10 +9118,10 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="60"/>
-      <c r="F58" s="58"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="32" t="s">
         <v>143</v>
       </c>
@@ -9132,7 +9129,7 @@
         <v>203</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J58" s="26" t="s">
         <v>250</v>
@@ -9156,10 +9153,10 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="60"/>
-      <c r="F59" s="58"/>
+      <c r="F59" s="61"/>
       <c r="G59" s="32" t="s">
         <v>144</v>
       </c>
@@ -9167,7 +9164,7 @@
         <v>205</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J59" s="26" t="s">
         <v>250</v>
@@ -9191,10 +9188,10 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="60"/>
-      <c r="F60" s="58"/>
+      <c r="F60" s="61"/>
       <c r="G60" s="32" t="s">
         <v>353</v>
       </c>
@@ -9225,10 +9222,10 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="60"/>
-      <c r="F61" s="58"/>
+      <c r="F61" s="61"/>
       <c r="G61" s="32" t="s">
         <v>354</v>
       </c>
@@ -9236,7 +9233,7 @@
         <v>209</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J61" s="26" t="s">
         <v>249</v>
@@ -9257,10 +9254,10 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="60"/>
-      <c r="F62" s="58"/>
+      <c r="F62" s="61"/>
       <c r="G62" s="32" t="s">
         <v>355</v>
       </c>
@@ -9268,7 +9265,7 @@
         <v>211</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J62" s="26" t="s">
         <v>250</v>
@@ -9289,10 +9286,10 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
       <c r="E63" s="60"/>
-      <c r="F63" s="58"/>
+      <c r="F63" s="61"/>
       <c r="G63" s="32" t="s">
         <v>356</v>
       </c>
@@ -9323,10 +9320,10 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
       <c r="E64" s="60"/>
-      <c r="F64" s="58"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="32" t="s">
         <v>357</v>
       </c>
@@ -9357,10 +9354,10 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
       <c r="E65" s="60"/>
-      <c r="F65" s="58"/>
+      <c r="F65" s="61"/>
       <c r="G65" s="32" t="s">
         <v>358</v>
       </c>
@@ -9368,7 +9365,7 @@
         <v>216</v>
       </c>
       <c r="I65" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J65" s="26" t="s">
         <v>250</v>
@@ -9391,12 +9388,12 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="63" t="s">
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="64" t="s">
         <v>326</v>
       </c>
-      <c r="F66" s="58" t="s">
+      <c r="F66" s="61" t="s">
         <v>140</v>
       </c>
       <c r="G66" s="32" t="s">
@@ -9429,10 +9426,10 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
       <c r="E67" s="60"/>
-      <c r="F67" s="58"/>
+      <c r="F67" s="61"/>
       <c r="G67" s="32" t="s">
         <v>359</v>
       </c>
@@ -9461,10 +9458,10 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="60"/>
-      <c r="F68" s="58"/>
+      <c r="F68" s="61"/>
       <c r="G68" s="32" t="s">
         <v>360</v>
       </c>
@@ -9472,7 +9469,7 @@
         <v>261</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J68" s="26" t="s">
         <v>250</v>
@@ -9495,10 +9492,10 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
       <c r="E69" s="60"/>
-      <c r="F69" s="58"/>
+      <c r="F69" s="61"/>
       <c r="G69" s="32" t="s">
         <v>361</v>
       </c>
@@ -9506,7 +9503,7 @@
         <v>145</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J69" s="26" t="s">
         <v>250</v>
@@ -9527,12 +9524,12 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57" t="s">
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="F70" s="58" t="s">
+      <c r="F70" s="61" t="s">
         <v>146</v>
       </c>
       <c r="G70" s="32" t="s">
@@ -9563,10 +9560,10 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="58"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="61"/>
       <c r="G71" s="32" t="s">
         <v>362</v>
       </c>
@@ -9574,7 +9571,7 @@
         <v>226</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J71" s="26" t="s">
         <v>250</v>
@@ -9597,8 +9594,8 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="54" t="s">
         <v>328</v>
       </c>
@@ -9635,8 +9632,8 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="54" t="s">
         <v>400</v>
       </c>
@@ -9650,7 +9647,7 @@
         <v>398</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J73" s="26" t="s">
         <v>385</v>
@@ -9670,16 +9667,16 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="C74" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="E74" s="61" t="s">
+      <c r="E74" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="57" t="s">
+      <c r="F74" s="59" t="s">
         <v>318</v>
       </c>
       <c r="G74" s="24" t="s">
@@ -9692,10 +9689,10 @@
         <v>263</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L74" s="26" t="s">
         <v>229</v>
@@ -9709,10 +9706,10 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="57"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="59"/>
       <c r="G75" s="24" t="s">
         <v>67</v>
       </c>
@@ -9723,7 +9720,7 @@
         <v>417</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K75" s="26" t="s">
         <v>153</v>
@@ -9738,16 +9735,16 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="57" t="s">
+      <c r="D76" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="57" t="s">
+      <c r="F76" s="59" t="s">
         <v>36</v>
       </c>
       <c r="G76" s="24" t="s">
@@ -9760,13 +9757,13 @@
         <v>264</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K76" s="26" t="s">
         <v>306</v>
       </c>
       <c r="L76" s="26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M76" s="23"/>
     </row>
@@ -9775,10 +9772,10 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="57"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="59"/>
       <c r="G77" s="24" t="s">
         <v>69</v>
       </c>
@@ -9789,7 +9786,7 @@
         <v>154</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K77" s="26" t="s">
         <v>89</v>
@@ -9804,10 +9801,10 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="57"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="59"/>
       <c r="G78" s="24" t="s">
         <v>70</v>
       </c>
@@ -9821,10 +9818,10 @@
         <v>32</v>
       </c>
       <c r="K78" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L78" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M78" s="23"/>
     </row>
@@ -9833,8 +9830,8 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
       <c r="E79" s="53" t="s">
         <v>54</v>
       </c>
@@ -9851,7 +9848,7 @@
         <v>12</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K79" s="26" t="s">
         <v>155</v>
@@ -9866,8 +9863,8 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="53" t="s">
         <v>55</v>
       </c>
@@ -9881,7 +9878,7 @@
         <v>40</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J80" s="26" t="s">
         <v>90</v>
@@ -9899,16 +9896,16 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="C81" s="57" t="s">
+      <c r="C81" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="57" t="s">
+      <c r="D81" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="61" t="s">
+      <c r="E81" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F81" s="57" t="s">
+      <c r="F81" s="59" t="s">
         <v>29</v>
       </c>
       <c r="G81" s="24" t="s">
@@ -9936,10 +9933,10 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="57"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="59"/>
       <c r="G82" s="24" t="s">
         <v>73</v>
       </c>
@@ -9947,7 +9944,7 @@
         <v>28</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J82" s="26" t="s">
         <v>416</v>
@@ -9962,6 +9959,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="C56:C73"/>
+    <mergeCell ref="D56:D73"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D22:D36"/>
+    <mergeCell ref="C22:C36"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C37:C55"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="C4:C16"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="F56:F65"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="D4:D16"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="F13:F16"/>
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="E17:E21"/>
@@ -9978,43 +10012,6 @@
     <mergeCell ref="E76:E78"/>
     <mergeCell ref="D74:D75"/>
     <mergeCell ref="D37:D55"/>
-    <mergeCell ref="C4:C16"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="F56:F65"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="D4:D16"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="C56:C73"/>
-    <mergeCell ref="D56:D73"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D22:D36"/>
-    <mergeCell ref="C22:C36"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C37:C55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/docs/7-8_システム要件定義/7_システム要件定義プロセスガイド/システム要件定義プロセス一覧.xlsx
+++ b/docs/7-8_システム要件定義/7_システム要件定義プロセスガイド/システム要件定義プロセス一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="20730" windowHeight="6150" tabRatio="447"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="28830" windowHeight="6150" tabRatio="447"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -3884,6 +3884,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
     <t>の下に提供されています。</t>
   </si>
   <si>
@@ -4385,9 +4395,6 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -4808,19 +4815,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4831,8 +4835,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5304,9 +5311,7 @@
   </sheetPr>
   <dimension ref="A1:AH512"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6124,7 +6129,7 @@
       <c r="P23" s="33"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
@@ -6198,7 +6203,7 @@
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
       <c r="R25" s="40" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
@@ -6451,7 +6456,9 @@
       <c r="O32" s="33"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="33"/>
-      <c r="R32" s="44"/>
+      <c r="R32" s="44" t="s">
+        <v>422</v>
+      </c>
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
@@ -6688,12 +6695,12 @@
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33"/>
       <c r="B39" s="33" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="51" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -6708,7 +6715,7 @@
       <c r="P39" s="48"/>
       <c r="Q39" s="49"/>
       <c r="R39" s="49" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="S39" s="48"/>
       <c r="T39" s="33"/>
@@ -6727,11 +6734,7 @@
       <c r="AG39" s="33"/>
       <c r="AH39" s="33"/>
     </row>
-    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="36" t="s">
-        <v>474</v>
-      </c>
-    </row>
+    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7210,7 +7213,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -7285,10 +7288,10 @@
       <c r="B4" s="55">
         <v>1</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="56" t="s">
@@ -7322,12 +7325,12 @@
         <f t="shared" ref="B5:B82" si="0">B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="58" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="64" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="24" t="s">
@@ -7337,7 +7340,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>84</v>
@@ -7355,10 +7358,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="24" t="s">
         <v>75</v>
       </c>
@@ -7366,7 +7369,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J6" s="26" t="s">
         <v>273</v>
@@ -7384,10 +7387,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="24" t="s">
         <v>76</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>369</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>266</v>
@@ -7413,10 +7416,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="24" t="s">
         <v>77</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>370</v>
@@ -7442,10 +7445,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="24" t="s">
         <v>78</v>
       </c>
@@ -7471,12 +7474,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="58" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="64" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="24" t="s">
@@ -7504,10 +7507,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="24" t="s">
         <v>79</v>
       </c>
@@ -7533,10 +7536,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="24" t="s">
         <v>60</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>238</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>413</v>
@@ -7562,12 +7565,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="65" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="24" t="s">
@@ -7595,10 +7598,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="24" t="s">
         <v>62</v>
       </c>
@@ -7624,10 +7627,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="24" t="s">
         <v>242</v>
       </c>
@@ -7653,10 +7656,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="24" t="s">
         <v>313</v>
       </c>
@@ -7682,16 +7685,16 @@
         <f>B16+1</f>
         <v>14</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="57" t="s">
         <v>315</v>
       </c>
       <c r="G17" s="24" t="s">
@@ -7701,7 +7704,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>277</v>
@@ -7719,10 +7722,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="24" t="s">
         <v>63</v>
       </c>
@@ -7730,7 +7733,7 @@
         <v>21</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>278</v>
@@ -7748,10 +7751,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="24" t="s">
         <v>234</v>
       </c>
@@ -7759,7 +7762,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>279</v>
@@ -7777,10 +7780,10 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="24" t="s">
         <v>64</v>
       </c>
@@ -7806,10 +7809,10 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="24" t="s">
         <v>65</v>
       </c>
@@ -7817,7 +7820,7 @@
         <v>24</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>316</v>
@@ -7838,10 +7841,10 @@
         <f>B20+1</f>
         <v>18</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="57" t="s">
         <v>92</v>
       </c>
       <c r="E22" s="52" t="s">
@@ -7857,7 +7860,7 @@
         <v>321</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J22" s="26" t="s">
         <v>365</v>
@@ -7881,12 +7884,12 @@
         <f>B21+1</f>
         <v>19</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="58" t="s">
         <v>93</v>
       </c>
       <c r="G23" s="29" t="s">
@@ -7896,7 +7899,7 @@
         <v>159</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J23" s="26" t="s">
         <v>282</v>
@@ -7918,10 +7921,10 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="29" t="s">
         <v>329</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>160</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>283</v>
@@ -7951,10 +7954,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="29" t="s">
         <v>330</v>
       </c>
@@ -7962,7 +7965,7 @@
         <v>162</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J25" s="26" t="s">
         <v>284</v>
@@ -7984,10 +7987,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="29" t="s">
         <v>331</v>
       </c>
@@ -7995,10 +7998,10 @@
         <v>94</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K26" s="26" t="s">
         <v>388</v>
@@ -8017,10 +8020,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="29" t="s">
         <v>332</v>
       </c>
@@ -8052,12 +8055,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="29" t="s">
@@ -8067,7 +8070,7 @@
         <v>169</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J28" s="26" t="s">
         <v>286</v>
@@ -8089,10 +8092,10 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="61"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="29" t="s">
         <v>334</v>
       </c>
@@ -8124,10 +8127,10 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="61"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="29" t="s">
         <v>335</v>
       </c>
@@ -8157,10 +8160,10 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="61"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="29" t="s">
         <v>336</v>
       </c>
@@ -8190,12 +8193,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="58" t="s">
         <v>100</v>
       </c>
       <c r="G32" s="31" t="s">
@@ -8205,7 +8208,7 @@
         <v>101</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>290</v>
@@ -8227,10 +8230,10 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="31" t="s">
         <v>338</v>
       </c>
@@ -8262,10 +8265,10 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="31" t="s">
         <v>339</v>
       </c>
@@ -8297,10 +8300,10 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="31" t="s">
         <v>340</v>
       </c>
@@ -8332,10 +8335,10 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="31" t="s">
         <v>341</v>
       </c>
@@ -8367,16 +8370,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="57" t="s">
         <v>408</v>
       </c>
       <c r="E37" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F37" s="61" t="s">
+      <c r="F37" s="58" t="s">
         <v>392</v>
       </c>
       <c r="G37" s="32" t="s">
@@ -8400,7 +8403,7 @@
       <c r="M37" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="N37" s="65"/>
+      <c r="N37" s="59"/>
     </row>
     <row r="38" spans="1:14" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
@@ -8410,10 +8413,10 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="32" t="s">
         <v>342</v>
       </c>
@@ -8427,7 +8430,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L38" s="26" t="s">
         <v>13</v>
@@ -8435,7 +8438,7 @@
       <c r="M38" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="N38" s="65"/>
+      <c r="N38" s="59"/>
     </row>
     <row r="39" spans="1:14" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
@@ -8445,10 +8448,10 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="32" t="s">
         <v>343</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>250</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L39" s="26" t="s">
         <v>13</v>
@@ -8470,7 +8473,7 @@
       <c r="M39" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="N39" s="65"/>
+      <c r="N39" s="59"/>
     </row>
     <row r="40" spans="1:14" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
@@ -8480,10 +8483,10 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="32" t="s">
         <v>344</v>
       </c>
@@ -8491,13 +8494,13 @@
         <v>109</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J40" s="26" t="s">
         <v>250</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L40" s="26" t="s">
         <v>13</v>
@@ -8505,7 +8508,7 @@
       <c r="M40" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="N40" s="65"/>
+      <c r="N40" s="59"/>
     </row>
     <row r="41" spans="1:14" s="12" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -8513,12 +8516,12 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="58" t="s">
         <v>187</v>
       </c>
       <c r="G41" s="32" t="s">
@@ -8552,10 +8555,10 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="32" t="s">
         <v>345</v>
       </c>
@@ -8577,7 +8580,7 @@
       <c r="M42" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="N42" s="65"/>
+      <c r="N42" s="59"/>
     </row>
     <row r="43" spans="1:14" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
@@ -8587,10 +8590,10 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="32" t="s">
         <v>346</v>
       </c>
@@ -8612,7 +8615,7 @@
       <c r="M43" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="65"/>
+      <c r="N43" s="59"/>
     </row>
     <row r="44" spans="1:14" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
@@ -8622,10 +8625,10 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="32" t="s">
         <v>347</v>
       </c>
@@ -8647,7 +8650,7 @@
       <c r="M44" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N44" s="65"/>
+      <c r="N44" s="59"/>
     </row>
     <row r="45" spans="1:14" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
@@ -8657,10 +8660,10 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="32" t="s">
         <v>348</v>
       </c>
@@ -8682,7 +8685,7 @@
       <c r="M45" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="N45" s="65"/>
+      <c r="N45" s="59"/>
     </row>
     <row r="46" spans="1:14" s="12" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
@@ -8690,10 +8693,10 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="60"/>
-      <c r="F46" s="61"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="32" t="s">
         <v>349</v>
       </c>
@@ -8725,12 +8728,12 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="F47" s="61" t="s">
+      <c r="F47" s="58" t="s">
         <v>123</v>
       </c>
       <c r="G47" s="32" t="s">
@@ -8746,7 +8749,7 @@
         <v>299</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L47" s="26" t="s">
         <v>13</v>
@@ -8764,10 +8767,10 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="60"/>
-      <c r="F48" s="61"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="32" t="s">
         <v>127</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>300</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L48" s="26" t="s">
         <v>13</v>
@@ -8799,10 +8802,10 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="60"/>
-      <c r="F49" s="61"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="32" t="s">
         <v>130</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>301</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L49" s="26" t="s">
         <v>13</v>
@@ -8834,10 +8837,10 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="60"/>
-      <c r="F50" s="61"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="32" t="s">
         <v>350</v>
       </c>
@@ -8848,10 +8851,10 @@
         <v>381</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L50" s="26" t="s">
         <v>13</v>
@@ -8869,10 +8872,10 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="60"/>
-      <c r="F51" s="61"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="32" t="s">
         <v>351</v>
       </c>
@@ -8880,13 +8883,13 @@
         <v>195</v>
       </c>
       <c r="I51" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="K51" s="26" t="s">
         <v>462</v>
-      </c>
-      <c r="J51" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="K51" s="26" t="s">
-        <v>461</v>
       </c>
       <c r="L51" s="26" t="s">
         <v>13</v>
@@ -8902,12 +8905,12 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="F52" s="61" t="s">
+      <c r="F52" s="58" t="s">
         <v>197</v>
       </c>
       <c r="G52" s="29" t="s">
@@ -8939,10 +8942,10 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="60"/>
-      <c r="F53" s="61"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="29" t="s">
         <v>135</v>
       </c>
@@ -8972,10 +8975,10 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="60"/>
-      <c r="F54" s="61"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="29" t="s">
         <v>137</v>
       </c>
@@ -9005,10 +9008,10 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="60"/>
-      <c r="F55" s="61"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="29" t="s">
         <v>138</v>
       </c>
@@ -9016,7 +9019,7 @@
         <v>133</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J55" s="26" t="s">
         <v>303</v>
@@ -9040,16 +9043,16 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="57" t="s">
         <v>408</v>
       </c>
       <c r="E56" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="F56" s="61" t="s">
+      <c r="F56" s="58" t="s">
         <v>134</v>
       </c>
       <c r="G56" s="32" t="s">
@@ -9059,7 +9062,7 @@
         <v>200</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J56" s="26" t="s">
         <v>304</v>
@@ -9083,10 +9086,10 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="60"/>
-      <c r="F57" s="61"/>
+      <c r="F57" s="58"/>
       <c r="G57" s="32" t="s">
         <v>352</v>
       </c>
@@ -9094,7 +9097,7 @@
         <v>136</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J57" s="26" t="s">
         <v>251</v>
@@ -9118,10 +9121,10 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="60"/>
-      <c r="F58" s="61"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="32" t="s">
         <v>143</v>
       </c>
@@ -9129,7 +9132,7 @@
         <v>203</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J58" s="26" t="s">
         <v>250</v>
@@ -9153,10 +9156,10 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="60"/>
-      <c r="F59" s="61"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="32" t="s">
         <v>144</v>
       </c>
@@ -9164,7 +9167,7 @@
         <v>205</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J59" s="26" t="s">
         <v>250</v>
@@ -9188,10 +9191,10 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="60"/>
-      <c r="F60" s="61"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="32" t="s">
         <v>353</v>
       </c>
@@ -9222,10 +9225,10 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="60"/>
-      <c r="F61" s="61"/>
+      <c r="F61" s="58"/>
       <c r="G61" s="32" t="s">
         <v>354</v>
       </c>
@@ -9233,7 +9236,7 @@
         <v>209</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J61" s="26" t="s">
         <v>249</v>
@@ -9254,10 +9257,10 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="60"/>
-      <c r="F62" s="61"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="32" t="s">
         <v>355</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>211</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J62" s="26" t="s">
         <v>250</v>
@@ -9286,10 +9289,10 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="60"/>
-      <c r="F63" s="61"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="32" t="s">
         <v>356</v>
       </c>
@@ -9320,10 +9323,10 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="60"/>
-      <c r="F64" s="61"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="32" t="s">
         <v>357</v>
       </c>
@@ -9354,10 +9357,10 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="60"/>
-      <c r="F65" s="61"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="32" t="s">
         <v>358</v>
       </c>
@@ -9365,7 +9368,7 @@
         <v>216</v>
       </c>
       <c r="I65" s="26" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J65" s="26" t="s">
         <v>250</v>
@@ -9388,12 +9391,12 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="64" t="s">
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="F66" s="61" t="s">
+      <c r="F66" s="58" t="s">
         <v>140</v>
       </c>
       <c r="G66" s="32" t="s">
@@ -9426,10 +9429,10 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="60"/>
-      <c r="F67" s="61"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="32" t="s">
         <v>359</v>
       </c>
@@ -9458,10 +9461,10 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="60"/>
-      <c r="F68" s="61"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="32" t="s">
         <v>360</v>
       </c>
@@ -9469,7 +9472,7 @@
         <v>261</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J68" s="26" t="s">
         <v>250</v>
@@ -9492,10 +9495,10 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="60"/>
-      <c r="F69" s="61"/>
+      <c r="F69" s="58"/>
       <c r="G69" s="32" t="s">
         <v>361</v>
       </c>
@@ -9503,7 +9506,7 @@
         <v>145</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J69" s="26" t="s">
         <v>250</v>
@@ -9524,12 +9527,12 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59" t="s">
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="F70" s="61" t="s">
+      <c r="F70" s="58" t="s">
         <v>146</v>
       </c>
       <c r="G70" s="32" t="s">
@@ -9560,10 +9563,10 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="61"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="58"/>
       <c r="G71" s="32" t="s">
         <v>362</v>
       </c>
@@ -9571,7 +9574,7 @@
         <v>226</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J71" s="26" t="s">
         <v>250</v>
@@ -9594,8 +9597,8 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="54" t="s">
         <v>328</v>
       </c>
@@ -9632,8 +9635,8 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="54" t="s">
         <v>400</v>
       </c>
@@ -9647,7 +9650,7 @@
         <v>398</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J73" s="26" t="s">
         <v>385</v>
@@ -9667,16 +9670,16 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="59" t="s">
+      <c r="D74" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E74" s="62" t="s">
+      <c r="E74" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="59" t="s">
+      <c r="F74" s="57" t="s">
         <v>318</v>
       </c>
       <c r="G74" s="24" t="s">
@@ -9689,10 +9692,10 @@
         <v>263</v>
       </c>
       <c r="J74" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="K74" s="26" t="s">
         <v>448</v>
-      </c>
-      <c r="K74" s="26" t="s">
-        <v>447</v>
       </c>
       <c r="L74" s="26" t="s">
         <v>229</v>
@@ -9706,10 +9709,10 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="59"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="24" t="s">
         <v>67</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>417</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K75" s="26" t="s">
         <v>153</v>
@@ -9735,16 +9738,16 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C76" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D76" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="62" t="s">
+      <c r="E76" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="59" t="s">
+      <c r="F76" s="57" t="s">
         <v>36</v>
       </c>
       <c r="G76" s="24" t="s">
@@ -9757,13 +9760,13 @@
         <v>264</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K76" s="26" t="s">
         <v>306</v>
       </c>
       <c r="L76" s="26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M76" s="23"/>
     </row>
@@ -9772,10 +9775,10 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="59"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="24" t="s">
         <v>69</v>
       </c>
@@ -9786,7 +9789,7 @@
         <v>154</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K77" s="26" t="s">
         <v>89</v>
@@ -9801,10 +9804,10 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="59"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="24" t="s">
         <v>70</v>
       </c>
@@ -9818,10 +9821,10 @@
         <v>32</v>
       </c>
       <c r="K78" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="L78" s="27" t="s">
         <v>442</v>
-      </c>
-      <c r="L78" s="27" t="s">
-        <v>441</v>
       </c>
       <c r="M78" s="23"/>
     </row>
@@ -9830,8 +9833,8 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="53" t="s">
         <v>54</v>
       </c>
@@ -9848,7 +9851,7 @@
         <v>12</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K79" s="26" t="s">
         <v>155</v>
@@ -9863,8 +9866,8 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
       <c r="E80" s="53" t="s">
         <v>55</v>
       </c>
@@ -9878,7 +9881,7 @@
         <v>40</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J80" s="26" t="s">
         <v>90</v>
@@ -9896,16 +9899,16 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D81" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="62" t="s">
+      <c r="E81" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F81" s="59" t="s">
+      <c r="F81" s="57" t="s">
         <v>29</v>
       </c>
       <c r="G81" s="24" t="s">
@@ -9933,10 +9936,10 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="59"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="24" t="s">
         <v>73</v>
       </c>
@@ -9944,7 +9947,7 @@
         <v>28</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J82" s="26" t="s">
         <v>416</v>
@@ -9959,27 +9962,22 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C56:C73"/>
-    <mergeCell ref="D56:D73"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D22:D36"/>
-    <mergeCell ref="C22:C36"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C37:C55"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="E56:E65"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D37:D55"/>
     <mergeCell ref="C4:C16"/>
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="F56:F65"/>
@@ -9996,22 +9994,27 @@
     <mergeCell ref="D4:D16"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="E56:E65"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D37:D55"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="C56:C73"/>
+    <mergeCell ref="D56:D73"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D22:D36"/>
+    <mergeCell ref="C22:C36"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C37:C55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
